--- a/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (003).xlsx
+++ b/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (003).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeangeorges.perrin/Workspaces/AAP/net.jgp.books.spark.ch16/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D62B699-1234-9C49-A1DA-9F8E9086A055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DE1B22-A16F-424D-8804-A24FBB38CBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76800" yWindow="460" windowWidth="40160" windowHeight="34820" xr2:uid="{99E4B593-27CD-5046-B562-66C9A4DBDE3A}"/>
+    <workbookView xWindow="76800" yWindow="8220" windowWidth="40960" windowHeight="25140" xr2:uid="{99E4B593-27CD-5046-B562-66C9A4DBDE3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 16 - Lab 100 Benchmark" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="13">
   <si>
     <t>No cache</t>
   </si>
@@ -68,10 +68,10 @@
     <t>Kfocus</t>
   </si>
   <si>
-    <t>MacBook Pro 2020</t>
+    <t>x</t>
   </si>
   <si>
-    <t>x</t>
+    <t>MacBook Pro 2019</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -157,30 +157,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -242,12 +222,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -255,23 +244,22 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -352,10 +340,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -384,23 +372,32 @@
                   <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$90:$S$90</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$90:$V$90</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>28.743333333333329</c:v>
                 </c:pt>
@@ -428,14 +425,17 @@
                 <c:pt idx="8">
                   <c:v>16.013500000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>16.4575</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>16.042133333333332</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>16.645025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,10 +487,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -519,23 +519,32 @@
                   <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$91:$S$91</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$91:$V$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>19.8</c:v>
                 </c:pt>
@@ -563,14 +572,17 @@
                 <c:pt idx="8">
                   <c:v>10.587428571428573</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>10.617949999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>10.742366666666666</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>10.844575000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,10 +634,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -654,23 +666,32 @@
                   <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$92:$S$92</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$92:$V$92</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>14.411666666666665</c:v>
                 </c:pt>
@@ -698,14 +719,17 @@
                 <c:pt idx="8">
                   <c:v>7.5805000000000007</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>7.8594500000000007</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>9.8487999999999989</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>9.0209499999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,10 +781,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -789,23 +813,32 @@
                   <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$93:$S$93</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$H$93:$V$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>14.125</c:v>
                 </c:pt>
@@ -833,14 +866,17 @@
                 <c:pt idx="8">
                   <c:v>7.5055714285714279</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>7.1957000000000004</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>9.1798666666666655</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>11.847300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,10 +1147,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1158,23 +1194,32 @@
                   <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$83:$S$83</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$83:$V$83</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>260.16666666666663</c:v>
                 </c:pt>
@@ -1217,14 +1262,17 @@
                 <c:pt idx="13">
                   <c:v>112094.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>164575</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>240632</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>332900.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,10 +1308,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1307,23 +1355,32 @@
                   <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$84:$S$84</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$84:$V$84</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2157.666666666667</c:v>
                 </c:pt>
@@ -1366,14 +1423,17 @@
                 <c:pt idx="13">
                   <c:v>74112</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>106179.5</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>161135.5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>216891.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,10 +1469,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$1:$S$1</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$1:$V$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1456,23 +1516,32 @@
                   <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$85:$S$85</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$85:$V$85</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1352.1666666666665</c:v>
                 </c:pt>
@@ -1515,14 +1584,17 @@
                 <c:pt idx="13">
                   <c:v>53063.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>78594.5</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>147732</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>180419</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,10 +1630,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$86:$S$86</c:f>
+              <c:f>'Chapter 16 - Lab 100 Benchmark'!$C$86:$V$86</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>795</c:v>
                 </c:pt>
@@ -1604,14 +1676,17 @@
                 <c:pt idx="13">
                   <c:v>52539</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>71957</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>137698</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>236946</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2889,7 +2964,7 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>292100</xdr:rowOff>
@@ -3255,80 +3330,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AD6FF0-1D1E-9B4C-96FF-E0188D0144AB}">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N44" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="V73" sqref="V73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="26" width="16" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10">
+    <row r="1" spans="1:26">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8">
         <v>1</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="8">
         <v>10</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="8">
         <v>100</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="8">
         <v>1000</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="8">
         <v>10000</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="8">
         <v>100000</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="8">
         <v>500000</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="8">
         <v>1000000</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="8">
         <v>2000000</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="8">
         <v>3000000</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="8">
         <v>4000000</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="8">
         <v>5000000</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="8">
         <v>6000000</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="8">
         <v>7000000</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="8">
+        <v>8000000</v>
+      </c>
+      <c r="R1" s="8">
+        <v>9000000</v>
+      </c>
+      <c r="S1" s="8">
         <v>10000000</v>
       </c>
-      <c r="R1" s="10">
+      <c r="T1" s="8">
         <v>15000000</v>
       </c>
-      <c r="S1" s="11">
+      <c r="U1" s="9">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="26" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="V1" s="8">
+        <v>25000000</v>
+      </c>
+      <c r="W1" s="8">
+        <v>30000000</v>
+      </c>
+      <c r="X1" s="8">
+        <v>35000000</v>
+      </c>
+      <c r="Y1" s="8">
+        <v>36000000</v>
+      </c>
+      <c r="Z1" s="8">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="26" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3374,539 +3470,740 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6" t="s">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1802</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1169</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1332</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1367</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1305</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>2112</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>6227</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
         <v>25139</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>39795</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>50897</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>81679</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>87593</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7" t="s">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="14"/>
-      <c r="B5" s="6" t="s">
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1154</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1156</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1192</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>1115</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>1199</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>1674</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>3764</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
         <v>17692</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>28659</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>56501</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>56736</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>64244</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7" t="s">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="14"/>
-      <c r="B6" s="6" t="s">
+      <c r="V5" s="5"/>
+      <c r="W5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
         <v>3248</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="7" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="14"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="14"/>
-      <c r="B8" s="6" t="s">
+      <c r="V6" s="5"/>
+      <c r="W6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="13"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>278</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2519</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>2273</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>2105</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>2957</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>3250</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>8570</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>19720</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>40198</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>54463</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>84295</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>102992</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="7" t="s">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="14"/>
-      <c r="B9" s="6" t="s">
+      <c r="V8" s="5"/>
+      <c r="W8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1785</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1312</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1347</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1240</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1364</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>2473</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>6155</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>14459</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>25794</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>36634</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>57848</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>67581</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="7" t="s">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="14"/>
-      <c r="B10" s="6" t="s">
+      <c r="V9" s="5"/>
+      <c r="W9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="13"/>
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1125</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>1048</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1331</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1309</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>1326</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>1558</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>3934</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>10461</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>19149</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>33877</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>42495</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>50049</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="7" t="s">
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="14"/>
-      <c r="B11" s="6" t="s">
+      <c r="V10" s="5"/>
+      <c r="W10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="13"/>
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>976</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>1205</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>1383</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>3203</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
         <v>19968</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>25596</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
         <v>47707</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7" t="s">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="14"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="14"/>
-      <c r="B13" s="6" t="s">
+      <c r="V11" s="5"/>
+      <c r="W11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="13"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="13"/>
+      <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>262</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>2737</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
         <v>2957</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
         <v>3120</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
         <v>20677</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5">
         <v>83658</v>
       </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="7" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="14"/>
-      <c r="B14" s="6" t="s">
+      <c r="V13" s="5"/>
+      <c r="W13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2975</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>1798</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>1471</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <v>2042</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
         <v>14712</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
         <v>57325</v>
       </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="7" t="s">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="14"/>
-      <c r="B15" s="6" t="s">
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="13"/>
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>1277</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>1083</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
         <v>1494</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>1617</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
         <v>10513</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
         <v>44186</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="7" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="14"/>
-      <c r="B16" s="6" t="s">
+      <c r="V15" s="5"/>
+      <c r="W15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="13"/>
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>795</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>748</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>1442</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
         <v>1442</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
         <v>10430</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
         <v>40274</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="7" t="s">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="14"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="14"/>
-      <c r="B18" s="6" t="s">
+      <c r="V16" s="5"/>
+      <c r="W16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="13"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="13"/>
+      <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:Q18" si="0">IF(ISERROR(AVERAGE(C13,C8,C3)),"",AVERAGE(C13,C8,C3))</f>
+        <f t="shared" ref="C18:S18" si="0">IF(ISERROR(AVERAGE(C13,C8,C3)),"",AVERAGE(C13,C8,C3))</f>
         <v>270.33333333333331</v>
       </c>
       <c r="D18" s="2">
@@ -3961,231 +4258,307 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S13,S8,S3)),"",AVERAGE(S13,S8,S3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="14"/>
-      <c r="B19" s="6" t="s">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(U13,U8,U3)),"",AVERAGE(U13,U8,U3))</f>
+        <v/>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2" t="str">
+        <f t="shared" ref="W18:Y21" si="1">IF(ISERROR(AVERAGE(W13,W8,W3)),"",AVERAGE(W13,W8,W3))</f>
+        <v/>
+      </c>
+      <c r="X18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z18" s="2" t="str">
+        <f t="shared" ref="Z18" si="2">IF(ISERROR(AVERAGE(Z13,Z8,Z3)),"",AVERAGE(Z13,Z8,Z3))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="13"/>
+      <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:Q19" si="1">IF(ISERROR(AVERAGE(C14,C9,C4)),"",AVERAGE(C14,C9,C4))</f>
+        <f t="shared" ref="C19:S19" si="3">IF(ISERROR(AVERAGE(C14,C9,C4)),"",AVERAGE(C14,C9,C4))</f>
         <v>2187.3333333333335</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1426.3333333333333</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1339.5</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1359.3333333333333</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1334.5</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2209</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6191</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14585.5</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25466.5</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38214.5</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55356.666666666664</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74630</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87593</v>
       </c>
       <c r="P19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S14,S9,S4)),"",AVERAGE(S14,S9,S4))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="14"/>
-      <c r="B20" s="6" t="s">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(U14,U9,U4)),"",AVERAGE(U14,U9,U4))</f>
+        <v/>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z19" s="2" t="str">
+        <f t="shared" ref="Z19" si="4">IF(ISERROR(AVERAGE(Z14,Z9,Z4)),"",AVERAGE(Z14,Z9,Z4))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="13"/>
+      <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:Q20" si="2">IF(ISERROR(AVERAGE(C15,C10,C5)),"",AVERAGE(C15,C10,C5))</f>
+        <f t="shared" ref="C20:S20" si="5">IF(ISERROR(AVERAGE(C15,C10,C5)),"",AVERAGE(C15,C10,C5))</f>
         <v>1185.3333333333333</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1095.6666666666667</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1261.5</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1306</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1262.5</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1616.3333333333333</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3849</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10487</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>18420.5</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31268</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>47727.333333333336</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>53392.5</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>64244</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S15,S10,S5)),"",AVERAGE(S15,S10,S5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="15"/>
-      <c r="B21" s="8" t="s">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(U15,U10,U5)),"",AVERAGE(U15,U10,U5))</f>
+        <v/>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z20" s="2" t="str">
+        <f t="shared" ref="Z20" si="6">IF(ISERROR(AVERAGE(Z15,Z10,Z5)),"",AVERAGE(Z15,Z10,Z5))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="14"/>
+      <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:Q21" si="3">IF(ISERROR(AVERAGE(C16,C11,C6)),"",AVERAGE(C16,C11,C6))</f>
+        <f t="shared" ref="C21:S21" si="7">IF(ISERROR(AVERAGE(C16,C11,C6)),"",AVERAGE(C16,C11,C6))</f>
         <v>795</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>748</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>976</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1442</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1205</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1412.5</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3225.5</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10430</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19968</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25596</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>40274</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>47707</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S16,S11,S6)),"",AVERAGE(S16,S11,S6))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="26" customHeight="1">
-      <c r="A23" s="13" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(U16,U11,U6)),"",AVERAGE(U16,U11,U6))</f>
+        <v/>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z21" s="2" t="str">
+        <f t="shared" ref="Z21" si="8">IF(ISERROR(AVERAGE(Z16,Z11,Z6)),"",AVERAGE(Z16,Z11,Z6))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="26" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -4231,782 +4604,983 @@
       <c r="P23" s="4">
         <v>108954</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4">
         <v>173587</v>
       </c>
-      <c r="R23" s="4">
+      <c r="T23" s="4">
         <v>236031</v>
       </c>
-      <c r="S23" s="5">
+      <c r="U23" s="4">
         <v>325395</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="14"/>
-      <c r="B24" s="6" t="s">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="13"/>
+      <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>2128</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>915</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1264</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>1214</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>1032</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>1751</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5">
         <v>11317</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>23501</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>28989</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>42555</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>52604</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>64818</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>71363</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5">
         <v>110305</v>
       </c>
-      <c r="R24" s="6">
+      <c r="T24" s="5">
         <v>169452</v>
       </c>
-      <c r="S24" s="7">
+      <c r="U24" s="5">
         <v>211189</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="14"/>
-      <c r="B25" s="6" t="s">
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="13"/>
+      <c r="B25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>1519</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>913</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>937</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>967</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>933</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>1266</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5">
         <v>8892</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>17077</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>25333</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>33272</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>27616</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>44162</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <v>53466</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5">
         <v>83181</v>
       </c>
-      <c r="R25" s="6">
+      <c r="T25" s="5">
         <v>158632</v>
       </c>
-      <c r="S25" s="7">
+      <c r="U25" s="5">
         <v>168030</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="14"/>
-      <c r="B26" s="6" t="s">
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="13"/>
+      <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="7" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="14"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="14"/>
-      <c r="B28" s="6" t="s">
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="13"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="13"/>
+      <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
         <v>31654</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>51558</v>
       </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6">
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
         <v>82448</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>88944</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <v>115235</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5">
         <v>155563</v>
       </c>
-      <c r="R28" s="6">
+      <c r="T28" s="5">
         <v>245233</v>
       </c>
-      <c r="S28" s="7">
+      <c r="U28" s="5">
         <v>340406</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="14"/>
-      <c r="B29" s="6" t="s">
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="13"/>
+      <c r="B29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
         <v>21574</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>33310</v>
       </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
         <v>52729</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="5">
         <v>61033</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="5">
         <v>76861</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5">
         <v>102054</v>
       </c>
-      <c r="R29" s="6">
+      <c r="T29" s="5">
         <v>152819</v>
       </c>
-      <c r="S29" s="7">
+      <c r="U29" s="5">
         <v>222594</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="14"/>
-      <c r="B30" s="6" t="s">
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="13"/>
+      <c r="B30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5">
         <v>15377</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>19011</v>
       </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6">
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
         <v>36718</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <v>45547</v>
       </c>
-      <c r="P30" s="6">
+      <c r="P30" s="5">
         <v>52661</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5">
         <v>74008</v>
       </c>
-      <c r="R30" s="6">
+      <c r="T30" s="5">
         <v>136832</v>
       </c>
-      <c r="S30" s="7">
+      <c r="U30" s="5">
         <v>192808</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="14"/>
-      <c r="B31" s="6" t="s">
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="13"/>
+      <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5">
         <v>25592</v>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5">
         <v>43707</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="5">
         <v>52539</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5">
         <v>71957</v>
       </c>
-      <c r="R31" s="6">
+      <c r="T31" s="5">
         <v>137698</v>
       </c>
-      <c r="S31" s="7">
+      <c r="U31" s="5">
         <v>236946</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="14"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="7"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="14"/>
-      <c r="B33" s="6" t="s">
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="13"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="13"/>
+      <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
         <v>30607</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5">
         <v>63806</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <v>85851</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="7"/>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="14"/>
-      <c r="B34" s="6" t="s">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="13"/>
+      <c r="B34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
         <v>21213</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6">
+      <c r="L34" s="5"/>
+      <c r="M34" s="5">
         <v>35557</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <v>56780</v>
       </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="7"/>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6" t="s">
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="13"/>
+      <c r="B35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
         <v>15821</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5">
         <v>29363</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <v>40071</v>
       </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="7"/>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="14"/>
-      <c r="B36" s="6" t="s">
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="13"/>
+      <c r="B36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5">
         <v>15267</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5">
         <v>30093</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <v>33253</v>
       </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="7" t="s">
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="14"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="7"/>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="14"/>
-      <c r="B38" s="6" t="s">
+      <c r="V36" s="5"/>
+      <c r="W36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="13"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="13"/>
+      <c r="B38" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ref="C38:J38" si="4">IF(ISERROR(AVERAGE(C33,C28,C23)),"",AVERAGE(C33,C28,C23))</f>
+        <f t="shared" ref="C38:J38" si="9">IF(ISERROR(AVERAGE(C33,C28,C23)),"",AVERAGE(C33,C28,C23))</f>
         <v>250</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1825</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2025</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2010</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2434</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2587</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" ref="I38" si="5">IF(ISERROR(AVERAGE(I33,I28,I23)),"",AVERAGE(I33,I28,I23))</f>
+        <f t="shared" ref="I38" si="10">IF(ISERROR(AVERAGE(I33,I28,I23)),"",AVERAGE(I33,I28,I23))</f>
         <v/>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17001</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" ref="K38:Q38" si="6">IF(ISERROR(AVERAGE(K33,K28,K23)),"",AVERAGE(K33,K28,K23))</f>
+        <f t="shared" ref="K38:S38" si="11">IF(ISERROR(AVERAGE(K33,K28,K23)),"",AVERAGE(K33,K28,K23))</f>
         <v>32397.333333333332</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>52169.5</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>64996</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>83444.333333333328</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>94100.5</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" ref="P38" si="7">IF(ISERROR(AVERAGE(P33,P28,P23)),"",AVERAGE(P33,P28,P23))</f>
+        <f t="shared" ref="P38" si="12">IF(ISERROR(AVERAGE(P33,P28,P23)),"",AVERAGE(P33,P28,P23))</f>
         <v>112094.5</v>
       </c>
-      <c r="Q38" s="2">
-        <f t="shared" si="6"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2">
+        <f t="shared" si="11"/>
         <v>164575</v>
       </c>
-      <c r="R38" s="2">
-        <f t="shared" ref="R38" si="8">IF(ISERROR(AVERAGE(R33,R28,R23)),"",AVERAGE(R33,R28,R23))</f>
+      <c r="T38" s="2">
+        <f t="shared" ref="T38:V38" si="13">IF(ISERROR(AVERAGE(T33,T28,T23)),"",AVERAGE(T33,T28,T23))</f>
         <v>240632</v>
       </c>
-      <c r="S38" s="2">
-        <f>IF(ISERROR(AVERAGE(S33,S28,S23)),"",AVERAGE(S33,S28,S23))</f>
+      <c r="U38" s="2">
+        <f>IF(ISERROR(AVERAGE(U33,U28,U23)),"",AVERAGE(U33,U28,U23))</f>
         <v>332900.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="14"/>
-      <c r="B39" s="6" t="s">
+      <c r="V38" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="W38" s="2" t="str">
+        <f t="shared" ref="W38:Y40" si="14">IF(ISERROR(AVERAGE(W33,W28,W23)),"",AVERAGE(W33,W28,W23))</f>
+        <v/>
+      </c>
+      <c r="X38" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="Y38" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="Z38" s="2" t="str">
+        <f t="shared" ref="Z38" si="15">IF(ISERROR(AVERAGE(Z33,Z28,Z23)),"",AVERAGE(Z33,Z28,Z23))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="13"/>
+      <c r="B39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ref="C39:J39" si="9">IF(ISERROR(AVERAGE(C34,C29,C24)),"",AVERAGE(C34,C29,C24))</f>
+        <f t="shared" ref="C39:J39" si="16">IF(ISERROR(AVERAGE(C34,C29,C24)),"",AVERAGE(C34,C29,C24))</f>
         <v>2128</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>915</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1264</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1214</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1032</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1751</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" ref="I39" si="10">IF(ISERROR(AVERAGE(I34,I29,I24)),"",AVERAGE(I34,I29,I24))</f>
+        <f t="shared" ref="I39" si="17">IF(ISERROR(AVERAGE(I34,I29,I24)),"",AVERAGE(I34,I29,I24))</f>
         <v/>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>11317</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" ref="K39:Q39" si="11">IF(ISERROR(AVERAGE(K34,K29,K24)),"",AVERAGE(K34,K29,K24))</f>
+        <f t="shared" ref="K39:S39" si="18">IF(ISERROR(AVERAGE(K34,K29,K24)),"",AVERAGE(K34,K29,K24))</f>
         <v>22096</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>31149.5</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>39056</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>54037.666666666664</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>62925.5</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" ref="P39" si="12">IF(ISERROR(AVERAGE(P34,P29,P24)),"",AVERAGE(P34,P29,P24))</f>
+        <f t="shared" ref="P39" si="19">IF(ISERROR(AVERAGE(P34,P29,P24)),"",AVERAGE(P34,P29,P24))</f>
         <v>74112</v>
       </c>
-      <c r="Q39" s="2">
-        <f t="shared" si="11"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2">
+        <f t="shared" si="18"/>
         <v>106179.5</v>
       </c>
-      <c r="R39" s="2">
-        <f t="shared" ref="R39" si="13">IF(ISERROR(AVERAGE(R34,R29,R24)),"",AVERAGE(R34,R29,R24))</f>
+      <c r="T39" s="2">
+        <f t="shared" ref="T39:V39" si="20">IF(ISERROR(AVERAGE(T34,T29,T24)),"",AVERAGE(T34,T29,T24))</f>
         <v>161135.5</v>
       </c>
-      <c r="S39" s="2">
-        <f>IF(ISERROR(AVERAGE(S34,S29,S24)),"",AVERAGE(S34,S29,S24))</f>
+      <c r="U39" s="2">
+        <f>IF(ISERROR(AVERAGE(U34,U29,U24)),"",AVERAGE(U34,U29,U24))</f>
         <v>216891.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="14"/>
-      <c r="B40" s="6" t="s">
+      <c r="V39" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="W39" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="X39" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="Y39" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="Z39" s="2" t="str">
+        <f t="shared" ref="Z39" si="21">IF(ISERROR(AVERAGE(Z34,Z29,Z24)),"",AVERAGE(Z34,Z29,Z24))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="13"/>
+      <c r="B40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ref="C40:J40" si="14">IF(ISERROR(AVERAGE(C35,C30,C25)),"",AVERAGE(C35,C30,C25))</f>
+        <f t="shared" ref="C40:J40" si="22">IF(ISERROR(AVERAGE(C35,C30,C25)),"",AVERAGE(C35,C30,C25))</f>
         <v>1519</v>
       </c>
       <c r="D40" s="2">
+        <f t="shared" si="22"/>
+        <v>913</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="22"/>
+        <v>937</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="22"/>
+        <v>967</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="22"/>
+        <v>933</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="22"/>
+        <v>1266</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f t="shared" ref="I40:O41" si="23">IF(ISERROR(AVERAGE(I35,I30,I25)),"",AVERAGE(I35,I30,I25))</f>
+        <v/>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="22"/>
+        <v>8892</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" ref="K40:S40" si="24">IF(ISERROR(AVERAGE(K35,K30,K25)),"",AVERAGE(K35,K30,K25))</f>
+        <v>16091.666666666666</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="24"/>
+        <v>22172</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="24"/>
+        <v>31317.5</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="24"/>
+        <v>34801.666666666664</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="24"/>
+        <v>44854.5</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" ref="P40:P41" si="25">IF(ISERROR(AVERAGE(P35,P30,P25)),"",AVERAGE(P35,P30,P25))</f>
+        <v>53063.5</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2">
+        <f t="shared" si="24"/>
+        <v>78594.5</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" ref="T40:T41" si="26">IF(ISERROR(AVERAGE(T35,T30,T25)),"",AVERAGE(T35,T30,T25))</f>
+        <v>147732</v>
+      </c>
+      <c r="U40" s="2">
+        <f>IF(ISERROR(AVERAGE(U35,U30,U25)),"",AVERAGE(U35,U30,U25))</f>
+        <v>180419</v>
+      </c>
+      <c r="V40" s="2" t="str">
+        <f t="shared" ref="V40" si="27">IF(ISERROR(AVERAGE(V35,V30,V25)),"",AVERAGE(V35,V30,V25))</f>
+        <v/>
+      </c>
+      <c r="W40" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>913</v>
-      </c>
-      <c r="E40" s="2">
+        <v/>
+      </c>
+      <c r="X40" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>937</v>
-      </c>
-      <c r="F40" s="2">
+        <v/>
+      </c>
+      <c r="Y40" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>967</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="14"/>
-        <v>933</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="14"/>
-        <v>1266</v>
-      </c>
-      <c r="I40" s="2" t="str">
-        <f t="shared" ref="I40:O41" si="15">IF(ISERROR(AVERAGE(I35,I30,I25)),"",AVERAGE(I35,I30,I25))</f>
-        <v/>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="14"/>
-        <v>8892</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" ref="K40:Q40" si="16">IF(ISERROR(AVERAGE(K35,K30,K25)),"",AVERAGE(K35,K30,K25))</f>
-        <v>16091.666666666666</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="16"/>
-        <v>22172</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="16"/>
-        <v>31317.5</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="16"/>
-        <v>34801.666666666664</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="16"/>
-        <v>44854.5</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" ref="P40:P41" si="17">IF(ISERROR(AVERAGE(P35,P30,P25)),"",AVERAGE(P35,P30,P25))</f>
-        <v>53063.5</v>
-      </c>
-      <c r="Q40" s="2">
-        <f t="shared" si="16"/>
-        <v>78594.5</v>
-      </c>
-      <c r="R40" s="2">
-        <f t="shared" ref="R40:S41" si="18">IF(ISERROR(AVERAGE(R35,R30,R25)),"",AVERAGE(R35,R30,R25))</f>
-        <v>147732</v>
-      </c>
-      <c r="S40" s="2">
-        <f>IF(ISERROR(AVERAGE(S35,S30,S25)),"",AVERAGE(S35,S30,S25))</f>
-        <v>180419</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="15"/>
-      <c r="B41" s="8" t="s">
+        <v/>
+      </c>
+      <c r="Z40" s="2" t="str">
+        <f t="shared" ref="Z40" si="28">IF(ISERROR(AVERAGE(Z35,Z30,Z25)),"",AVERAGE(Z35,Z30,Z25))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="14"/>
+      <c r="B41" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f t="shared" ref="C41:H41" si="19">IF(ISERROR(AVERAGE(C36,C31,C26)),"",AVERAGE(C36,C31,C26))</f>
+        <f t="shared" ref="C41:H41" si="29">IF(ISERROR(AVERAGE(C36,C31,C26)),"",AVERAGE(C36,C31,C26))</f>
         <v/>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F41" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="H41" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>15267</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>25592</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>30093</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>33253</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>43707</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>52539</v>
       </c>
-      <c r="Q41" s="2">
-        <f>IF(ISERROR(AVERAGE(Q36,Q31,Q26)),"",AVERAGE(Q36,Q31,Q26))</f>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2">
+        <f>IF(ISERROR(AVERAGE(S36,S31,S26)),"",AVERAGE(S36,S31,S26))</f>
         <v>71957</v>
       </c>
-      <c r="R41" s="2">
-        <f t="shared" si="18"/>
+      <c r="T41" s="2">
+        <f t="shared" si="26"/>
         <v>137698</v>
       </c>
-      <c r="S41" s="2">
-        <f t="shared" si="18"/>
+      <c r="U41" s="2">
+        <f t="shared" ref="U41:V41" si="30">IF(ISERROR(AVERAGE(U36,U31,U26)),"",AVERAGE(U36,U31,U26))</f>
         <v>236946</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" ht="26" customHeight="1">
-      <c r="A43" s="13" t="s">
+      <c r="V41" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="W41" s="2" t="str">
+        <f t="shared" ref="W41:X41" si="31">IF(ISERROR(AVERAGE(W36,W31,W26)),"",AVERAGE(W36,W31,W26))</f>
+        <v/>
+      </c>
+      <c r="X41" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Y41" s="2" t="str">
+        <f t="shared" ref="Y41:Z41" si="32">IF(ISERROR(AVERAGE(Y36,Y31,Y26)),"",AVERAGE(Y36,Y31,Y26))</f>
+        <v/>
+      </c>
+      <c r="Z41" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="26" customHeight="1">
+      <c r="A43" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -5023,628 +5597,877 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+      <c r="N43" s="4">
+        <v>165768</v>
+      </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="5"/>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="14"/>
-      <c r="B44" s="6" t="s">
+      <c r="S43" s="4"/>
+      <c r="T43" s="4">
+        <v>420741</v>
+      </c>
+      <c r="U43" s="4">
+        <v>417687</v>
+      </c>
+      <c r="V43" s="4">
+        <v>715173</v>
+      </c>
+      <c r="W43" s="4">
+        <v>880734</v>
+      </c>
+      <c r="X43" s="4">
+        <v>990166</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>1047391</v>
+      </c>
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="13"/>
+      <c r="B44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="7"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="14"/>
-      <c r="B45" s="6" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5">
+        <v>115880</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5">
+        <v>284395</v>
+      </c>
+      <c r="U44" s="5">
+        <v>330399</v>
+      </c>
+      <c r="V44" s="5">
+        <v>515625</v>
+      </c>
+      <c r="W44" s="5">
+        <v>656313</v>
+      </c>
+      <c r="X44" s="5">
+        <v>738539</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>751438</v>
+      </c>
+      <c r="Z44" s="5"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="13"/>
+      <c r="B45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="7"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="14"/>
-      <c r="B46" s="6" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5">
+        <v>81992</v>
+      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5">
+        <v>192591</v>
+      </c>
+      <c r="U45" s="5">
+        <v>185813</v>
+      </c>
+      <c r="V45" s="5">
+        <v>315888</v>
+      </c>
+      <c r="W45" s="5">
+        <v>382623</v>
+      </c>
+      <c r="X45" s="5">
+        <v>434012</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>530342</v>
+      </c>
+      <c r="Z45" s="5"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="13"/>
+      <c r="B46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="7"/>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="14"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="7"/>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="14"/>
-      <c r="B48" s="6" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5">
+        <v>83187</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5">
+        <v>187425</v>
+      </c>
+      <c r="U46" s="5">
+        <v>185207</v>
+      </c>
+      <c r="V46" s="5">
+        <v>315700</v>
+      </c>
+      <c r="W46" s="5">
+        <v>385483</v>
+      </c>
+      <c r="X46" s="5">
+        <v>442731</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>540788</v>
+      </c>
+      <c r="Z46" s="5"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="13"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="13"/>
+      <c r="B48" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="7"/>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="14"/>
-      <c r="B49" s="6" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="13"/>
+      <c r="B49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="7"/>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="14"/>
-      <c r="B50" s="6" t="s">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="13"/>
+      <c r="B50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="7"/>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="14"/>
-      <c r="B51" s="6" t="s">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="13"/>
+      <c r="B51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="7"/>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="14"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="7"/>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="14"/>
-      <c r="B53" s="6" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="13"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="13"/>
+      <c r="B53" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="7"/>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="14"/>
-      <c r="B54" s="6" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="13"/>
+      <c r="B54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="7"/>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="14"/>
-      <c r="B55" s="6" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="13"/>
+      <c r="B55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="7"/>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="14"/>
-      <c r="B56" s="6" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="13"/>
+      <c r="B56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="7"/>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="14"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="7"/>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="14"/>
-      <c r="B58" s="6" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="13"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="13"/>
+      <c r="B58" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f t="shared" ref="C58:R61" si="20">IF(ISERROR(AVERAGE(C53,C48,C43)),"",AVERAGE(C53,C48,C43))</f>
+        <f t="shared" ref="C58:T61" si="33">IF(ISERROR(AVERAGE(C53,C48,C43)),"",AVERAGE(C53,C48,C43))</f>
         <v/>
       </c>
       <c r="D58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="F58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="G58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M58" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N58" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="33"/>
+        <v>165768</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P58" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q58" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R58" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
       <c r="S58" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S53,S48,S43)),"",AVERAGE(S53,S48,S43))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="14"/>
-      <c r="B59" s="6" t="s">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="T58" s="2">
+        <f t="shared" si="33"/>
+        <v>420741</v>
+      </c>
+      <c r="U58" s="2">
+        <f>IF(ISERROR(AVERAGE(U53,U48,U43)),"",AVERAGE(U53,U48,U43))</f>
+        <v>417687</v>
+      </c>
+      <c r="V58" s="2">
+        <f t="shared" ref="V58" si="34">IF(ISERROR(AVERAGE(V53,V48,V43)),"",AVERAGE(V53,V48,V43))</f>
+        <v>715173</v>
+      </c>
+      <c r="W58" s="2">
+        <f t="shared" ref="W58:Y60" si="35">IF(ISERROR(AVERAGE(W53,W48,W43)),"",AVERAGE(W53,W48,W43))</f>
+        <v>880734</v>
+      </c>
+      <c r="X58" s="2">
+        <f t="shared" si="35"/>
+        <v>990166</v>
+      </c>
+      <c r="Y58" s="2">
+        <f t="shared" si="35"/>
+        <v>1047391</v>
+      </c>
+      <c r="Z58" s="2" t="str">
+        <f t="shared" ref="Z58" si="36">IF(ISERROR(AVERAGE(Z53,Z48,Z43)),"",AVERAGE(Z53,Z48,Z43))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="13"/>
+      <c r="B59" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f t="shared" ref="C59:J59" si="21">IF(ISERROR(AVERAGE(C54,C49,C44)),"",AVERAGE(C54,C49,C44))</f>
+        <f t="shared" ref="C59:H59" si="37">IF(ISERROR(AVERAGE(C54,C49,C44)),"",AVERAGE(C54,C49,C44))</f>
         <v/>
       </c>
       <c r="D59" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F59" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G59" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H59" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I59" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K59" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L59" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M59" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N59" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="33"/>
+        <v>115880</v>
       </c>
       <c r="O59" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P59" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q59" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R59" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
       <c r="S59" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S54,S49,S44)),"",AVERAGE(S54,S49,S44))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="14"/>
-      <c r="B60" s="6" t="s">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="T59" s="2">
+        <f t="shared" si="33"/>
+        <v>284395</v>
+      </c>
+      <c r="U59" s="2">
+        <f>IF(ISERROR(AVERAGE(U54,U49,U44)),"",AVERAGE(U54,U49,U44))</f>
+        <v>330399</v>
+      </c>
+      <c r="V59" s="2">
+        <f t="shared" ref="V59" si="38">IF(ISERROR(AVERAGE(V54,V49,V44)),"",AVERAGE(V54,V49,V44))</f>
+        <v>515625</v>
+      </c>
+      <c r="W59" s="2">
+        <f t="shared" si="35"/>
+        <v>656313</v>
+      </c>
+      <c r="X59" s="2">
+        <f t="shared" si="35"/>
+        <v>738539</v>
+      </c>
+      <c r="Y59" s="2">
+        <f t="shared" si="35"/>
+        <v>751438</v>
+      </c>
+      <c r="Z59" s="2" t="str">
+        <f t="shared" ref="Z59" si="39">IF(ISERROR(AVERAGE(Z54,Z49,Z44)),"",AVERAGE(Z54,Z49,Z44))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="13"/>
+      <c r="B60" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f t="shared" ref="C60:O60" si="22">IF(ISERROR(AVERAGE(C55,C50,C45)),"",AVERAGE(C55,C50,C45))</f>
+        <f t="shared" ref="C60:O60" si="40">IF(ISERROR(AVERAGE(C55,C50,C45)),"",AVERAGE(C55,C50,C45))</f>
         <v/>
       </c>
       <c r="D60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M60" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="N60" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="40"/>
+        <v>81992</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P60" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q60" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="R60" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
       <c r="S60" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S55,S50,S45)),"",AVERAGE(S55,S50,S45))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="15"/>
-      <c r="B61" s="8" t="s">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="T60" s="2">
+        <f t="shared" si="33"/>
+        <v>192591</v>
+      </c>
+      <c r="U60" s="2">
+        <f>IF(ISERROR(AVERAGE(U55,U50,U45)),"",AVERAGE(U55,U50,U45))</f>
+        <v>185813</v>
+      </c>
+      <c r="V60" s="2">
+        <f t="shared" ref="V60" si="41">IF(ISERROR(AVERAGE(V55,V50,V45)),"",AVERAGE(V55,V50,V45))</f>
+        <v>315888</v>
+      </c>
+      <c r="W60" s="2">
+        <f t="shared" si="35"/>
+        <v>382623</v>
+      </c>
+      <c r="X60" s="2">
+        <f t="shared" si="35"/>
+        <v>434012</v>
+      </c>
+      <c r="Y60" s="2">
+        <f t="shared" si="35"/>
+        <v>530342</v>
+      </c>
+      <c r="Z60" s="2" t="str">
+        <f t="shared" ref="Z60" si="42">IF(ISERROR(AVERAGE(Z55,Z50,Z45)),"",AVERAGE(Z55,Z50,Z45))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="14"/>
+      <c r="B61" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f t="shared" ref="C61:O61" si="23">IF(ISERROR(AVERAGE(C56,C51,C46)),"",AVERAGE(C56,C51,C46))</f>
+        <f t="shared" ref="C61:O61" si="43">IF(ISERROR(AVERAGE(C56,C51,C46)),"",AVERAGE(C56,C51,C46))</f>
         <v/>
       </c>
       <c r="D61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="F61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M61" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="N61" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="43"/>
+        <v>83187</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P61" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q61" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(Q56,Q51,Q46)),"",AVERAGE(Q56,Q51,Q46))</f>
-        <v/>
-      </c>
-      <c r="R61" s="2" t="str">
-        <f t="shared" ref="R61:S61" si="24">IF(ISERROR(AVERAGE(R56,R51,R46)),"",AVERAGE(R56,R51,R46))</f>
-        <v/>
-      </c>
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
       <c r="S61" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="26" customHeight="1">
-      <c r="A63" s="13" t="s">
-        <v>11</v>
+        <f>IF(ISERROR(AVERAGE(S56,S51,S46)),"",AVERAGE(S56,S51,S46))</f>
+        <v/>
+      </c>
+      <c r="T61" s="2">
+        <f t="shared" ref="T61" si="44">IF(ISERROR(AVERAGE(T56,T51,T46)),"",AVERAGE(T56,T51,T46))</f>
+        <v>187425</v>
+      </c>
+      <c r="U61" s="2">
+        <f t="shared" ref="U61:V61" si="45">IF(ISERROR(AVERAGE(U56,U51,U46)),"",AVERAGE(U56,U51,U46))</f>
+        <v>185207</v>
+      </c>
+      <c r="V61" s="2">
+        <f t="shared" si="45"/>
+        <v>315700</v>
+      </c>
+      <c r="W61" s="2">
+        <f t="shared" ref="W61:X61" si="46">IF(ISERROR(AVERAGE(W56,W51,W46)),"",AVERAGE(W56,W51,W46))</f>
+        <v>385483</v>
+      </c>
+      <c r="X61" s="2">
+        <f t="shared" si="46"/>
+        <v>442731</v>
+      </c>
+      <c r="Y61" s="2">
+        <f t="shared" ref="Y61:Z61" si="47">IF(ISERROR(AVERAGE(Y56,Y51,Y46)),"",AVERAGE(Y56,Y51,Y46))</f>
+        <v>540788</v>
+      </c>
+      <c r="Z61" s="2" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="26" customHeight="1">
+      <c r="A63" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>0</v>
@@ -5665,648 +6488,868 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4" t="s">
-        <v>12</v>
+      <c r="M63" s="4">
+        <v>84447</v>
+      </c>
+      <c r="N63" s="4">
+        <v>119016</v>
       </c>
       <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="5"/>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="14"/>
-      <c r="B64" s="6" t="s">
+      <c r="P63" s="4">
+        <v>151648</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="13"/>
+      <c r="B64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5">
         <v>1556</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="5">
         <v>2364</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="5">
         <v>7271</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="7"/>
-    </row>
-    <row r="65" spans="1:19">
-      <c r="A65" s="14"/>
-      <c r="B65" s="6" t="s">
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5">
+        <v>67228</v>
+      </c>
+      <c r="N64" s="5">
+        <v>108570</v>
+      </c>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5">
+        <v>110627</v>
+      </c>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="13"/>
+      <c r="B65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5">
         <v>1400</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="5">
         <v>1642</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="5">
         <v>4002</v>
       </c>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="7"/>
-    </row>
-    <row r="66" spans="1:19">
-      <c r="A66" s="14"/>
-      <c r="B66" s="6" t="s">
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5">
+        <v>44551</v>
+      </c>
+      <c r="N65" s="5">
+        <v>67708</v>
+      </c>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5">
+        <v>71502</v>
+      </c>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="13"/>
+      <c r="B66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5">
         <v>1160</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="5">
         <v>1472</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="5">
         <v>3705</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="7"/>
-    </row>
-    <row r="67" spans="1:19">
-      <c r="A67" s="14"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="7"/>
-    </row>
-    <row r="68" spans="1:19">
-      <c r="A68" s="14"/>
-      <c r="B68" s="6" t="s">
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5">
+        <v>45612</v>
+      </c>
+      <c r="N66" s="5">
+        <v>69928</v>
+      </c>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5">
+        <v>72257</v>
+      </c>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="13"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="13"/>
+      <c r="B68" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="7"/>
-    </row>
-    <row r="69" spans="1:19">
-      <c r="A69" s="14"/>
-      <c r="B69" s="6" t="s">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="13"/>
+      <c r="B69" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="7"/>
-    </row>
-    <row r="70" spans="1:19">
-      <c r="A70" s="14"/>
-      <c r="B70" s="6" t="s">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="13"/>
+      <c r="B70" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="7"/>
-    </row>
-    <row r="71" spans="1:19">
-      <c r="A71" s="14"/>
-      <c r="B71" s="6" t="s">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="13"/>
+      <c r="B71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="7"/>
-    </row>
-    <row r="72" spans="1:19">
-      <c r="A72" s="14"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="7"/>
-    </row>
-    <row r="73" spans="1:19">
-      <c r="A73" s="14"/>
-      <c r="B73" s="6" t="s">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" s="13"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" s="13"/>
+      <c r="B73" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="7"/>
-    </row>
-    <row r="74" spans="1:19">
-      <c r="A74" s="14"/>
-      <c r="B74" s="6" t="s">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" s="13"/>
+      <c r="B74" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="7"/>
-    </row>
-    <row r="75" spans="1:19">
-      <c r="A75" s="14"/>
-      <c r="B75" s="6" t="s">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75" s="13"/>
+      <c r="B75" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="7"/>
-    </row>
-    <row r="76" spans="1:19">
-      <c r="A76" s="14"/>
-      <c r="B76" s="6" t="s">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" s="13"/>
+      <c r="B76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="7"/>
-    </row>
-    <row r="77" spans="1:19">
-      <c r="A77" s="14"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="7"/>
-    </row>
-    <row r="78" spans="1:19">
-      <c r="A78" s="14"/>
-      <c r="B78" s="6" t="s">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" s="13"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78" s="13"/>
+      <c r="B78" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f t="shared" ref="C78:R78" si="25">IF(ISERROR(AVERAGE(C73,C68,C63)),"",AVERAGE(C73,C68,C63))</f>
+        <f t="shared" ref="C78:T78" si="48">IF(ISERROR(AVERAGE(C73,C68,C63)),"",AVERAGE(C73,C68,C63))</f>
         <v/>
       </c>
       <c r="D78" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="F78" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>2520</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>3683</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>9392</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K78" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L78" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M78" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N78" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v/>
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M78" s="2">
+        <f t="shared" si="48"/>
+        <v>84447</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="48"/>
+        <v>119016</v>
       </c>
       <c r="O78" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P78" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="Q78" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="R78" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="P78" s="2">
+        <f t="shared" si="48"/>
+        <v>151648</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
       <c r="S78" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S73,S68,S63)),"",AVERAGE(S73,S68,S63))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
-      <c r="A79" s="14"/>
-      <c r="B79" s="6" t="s">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="T78" s="2" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="U78" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(U73,U68,U63)),"",AVERAGE(U73,U68,U63))</f>
+        <v/>
+      </c>
+      <c r="V78" s="2" t="str">
+        <f t="shared" ref="V78" si="49">IF(ISERROR(AVERAGE(V73,V68,V63)),"",AVERAGE(V73,V68,V63))</f>
+        <v/>
+      </c>
+      <c r="W78" s="2" t="str">
+        <f t="shared" ref="W78:Y80" si="50">IF(ISERROR(AVERAGE(W73,W68,W63)),"",AVERAGE(W73,W68,W63))</f>
+        <v/>
+      </c>
+      <c r="X78" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="Y78" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="Z78" s="2" t="str">
+        <f t="shared" ref="Z78" si="51">IF(ISERROR(AVERAGE(Z73,Z68,Z63)),"",AVERAGE(Z73,Z68,Z63))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79" s="13"/>
+      <c r="B79" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f t="shared" ref="C79:R79" si="26">IF(ISERROR(AVERAGE(C74,C69,C64)),"",AVERAGE(C74,C69,C64))</f>
+        <f t="shared" ref="C79:T79" si="52">IF(ISERROR(AVERAGE(C74,C69,C64)),"",AVERAGE(C74,C69,C64))</f>
         <v/>
       </c>
       <c r="D79" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="F79" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>1556</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>2364</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>7271</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="K79" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="L79" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M79" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N79" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" si="52"/>
+        <v>67228</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="52"/>
+        <v>108570</v>
       </c>
       <c r="O79" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="P79" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Q79" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="R79" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="P79" s="2">
+        <f t="shared" si="52"/>
+        <v>110627</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
       <c r="S79" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S74,S69,S64)),"",AVERAGE(S74,S69,S64))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
-      <c r="A80" s="14"/>
-      <c r="B80" s="6" t="s">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="T79" s="2" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="U79" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(U74,U69,U64)),"",AVERAGE(U74,U69,U64))</f>
+        <v/>
+      </c>
+      <c r="V79" s="2" t="str">
+        <f t="shared" ref="V79" si="53">IF(ISERROR(AVERAGE(V74,V69,V64)),"",AVERAGE(V74,V69,V64))</f>
+        <v/>
+      </c>
+      <c r="W79" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="X79" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="Y79" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="Z79" s="2" t="str">
+        <f t="shared" ref="Z79" si="54">IF(ISERROR(AVERAGE(Z74,Z69,Z64)),"",AVERAGE(Z74,Z69,Z64))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80" s="13"/>
+      <c r="B80" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f t="shared" ref="C80:R80" si="27">IF(ISERROR(AVERAGE(C75,C70,C65)),"",AVERAGE(C75,C70,C65))</f>
+        <f t="shared" ref="C80:T80" si="55">IF(ISERROR(AVERAGE(C75,C70,C65)),"",AVERAGE(C75,C70,C65))</f>
         <v/>
       </c>
       <c r="D80" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="F80" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>1400</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>1642</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v>4002</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="K80" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="L80" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M80" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="N80" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="55"/>
+        <v>44551</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" si="55"/>
+        <v>67708</v>
       </c>
       <c r="O80" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="P80" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="Q80" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="R80" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="P80" s="2">
+        <f t="shared" si="55"/>
+        <v>71502</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
       <c r="S80" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(S75,S70,S65)),"",AVERAGE(S75,S70,S65))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
-      <c r="A81" s="15"/>
-      <c r="B81" s="8" t="s">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="T80" s="2" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="U80" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(U75,U70,U65)),"",AVERAGE(U75,U70,U65))</f>
+        <v/>
+      </c>
+      <c r="V80" s="2" t="str">
+        <f t="shared" ref="V80" si="56">IF(ISERROR(AVERAGE(V75,V70,V65)),"",AVERAGE(V75,V70,V65))</f>
+        <v/>
+      </c>
+      <c r="W80" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="X80" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="Y80" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="Z80" s="2" t="str">
+        <f t="shared" ref="Z80" si="57">IF(ISERROR(AVERAGE(Z75,Z70,Z65)),"",AVERAGE(Z75,Z70,Z65))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" s="14"/>
+      <c r="B81" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f t="shared" ref="C81:P81" si="28">IF(ISERROR(AVERAGE(C76,C71,C66)),"",AVERAGE(C76,C71,C66))</f>
+        <f t="shared" ref="C81:P81" si="58">IF(ISERROR(AVERAGE(C76,C71,C66)),"",AVERAGE(C76,C71,C66))</f>
         <v/>
       </c>
       <c r="D81" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="F81" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="58"/>
         <v>1160</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="58"/>
         <v>1472</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="58"/>
         <v>3705</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="K81" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="L81" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="M81" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="N81" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v/>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" si="58"/>
+        <v>45612</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" si="58"/>
+        <v>69928</v>
       </c>
       <c r="O81" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="P81" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q81" s="2" t="str">
-        <f>IF(ISERROR(AVERAGE(Q76,Q71,Q66)),"",AVERAGE(Q76,Q71,Q66))</f>
-        <v/>
-      </c>
-      <c r="R81" s="2" t="str">
-        <f t="shared" ref="R81:S81" si="29">IF(ISERROR(AVERAGE(R76,R71,R66)),"",AVERAGE(R76,R71,R66))</f>
-        <v/>
-      </c>
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="P81" s="2">
+        <f t="shared" si="58"/>
+        <v>72257</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
       <c r="S81" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="26" customHeight="1">
-      <c r="A83" s="13" t="s">
+        <f>IF(ISERROR(AVERAGE(S76,S71,S66)),"",AVERAGE(S76,S71,S66))</f>
+        <v/>
+      </c>
+      <c r="T81" s="2" t="str">
+        <f t="shared" ref="T81" si="59">IF(ISERROR(AVERAGE(T76,T71,T66)),"",AVERAGE(T76,T71,T66))</f>
+        <v/>
+      </c>
+      <c r="U81" s="2" t="str">
+        <f t="shared" ref="U81:V81" si="60">IF(ISERROR(AVERAGE(U76,U71,U66)),"",AVERAGE(U76,U71,U66))</f>
+        <v/>
+      </c>
+      <c r="V81" s="2" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="W81" s="2" t="str">
+        <f t="shared" ref="W81:X81" si="61">IF(ISERROR(AVERAGE(W76,W71,W66)),"",AVERAGE(W76,W71,W66))</f>
+        <v/>
+      </c>
+      <c r="X81" s="2" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="Y81" s="2" t="str">
+        <f t="shared" ref="Y81:Z81" si="62">IF(ISERROR(AVERAGE(Y76,Y71,Y66)),"",AVERAGE(Y76,Y71,Y66))</f>
+        <v/>
+      </c>
+      <c r="Z81" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="26" customHeight="1">
+      <c r="A83" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -6317,293 +7360,381 @@
         <v>260.16666666666663</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" ref="D83:S83" si="30">AVERAGE(D38,D18)</f>
+        <f t="shared" ref="D83:S83" si="63">AVERAGE(D38,D18)</f>
         <v>2114.166666666667</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>2137.75</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>2343.5</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>2670.5</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>2874.333333333333</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" ref="I83" si="31">AVERAGE(I38,I18)</f>
+        <f t="shared" ref="I83" si="64">AVERAGE(I38,I18)</f>
         <v>8808.5</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>18599.75</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>37140.166666666664</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>54730</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>73729.5</v>
       </c>
       <c r="N83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>98722.916666666657</v>
       </c>
       <c r="O83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>116755.25</v>
       </c>
       <c r="P83" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="63"/>
         <v>112094.5</v>
       </c>
-      <c r="Q83" s="2">
-        <f t="shared" si="30"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2">
+        <f t="shared" si="63"/>
         <v>164575</v>
       </c>
-      <c r="R83" s="2">
-        <f t="shared" ref="R83" si="32">AVERAGE(R38,R18)</f>
+      <c r="T83" s="2">
+        <f t="shared" ref="T83:U83" si="65">AVERAGE(T38,T18)</f>
         <v>240632</v>
       </c>
-      <c r="S83" s="2">
-        <f t="shared" si="30"/>
+      <c r="U83" s="2">
+        <f t="shared" si="65"/>
         <v>332900.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
-      <c r="A84" s="14"/>
-      <c r="B84" s="6" t="s">
+      <c r="V83" s="2" t="e">
+        <f t="shared" ref="V83:W83" si="66">AVERAGE(V38,V18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W83" s="2" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X83" s="2" t="e">
+        <f t="shared" ref="X83:Y83" si="67">AVERAGE(X38,X18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y83" s="2" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z83" s="2" t="e">
+        <f t="shared" ref="Z83" si="68">AVERAGE(Z38,Z18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84" s="13"/>
+      <c r="B84" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" ref="C84:S84" si="33">AVERAGE(C39,C19)</f>
+        <f t="shared" ref="C84:S84" si="69">AVERAGE(C39,C19)</f>
         <v>2157.666666666667</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>1170.6666666666665</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>1301.75</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>1286.6666666666665</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>1183.25</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>1980</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" ref="I84" si="34">AVERAGE(I39,I19)</f>
+        <f t="shared" ref="I84" si="70">AVERAGE(I39,I19)</f>
         <v>6191</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>12951.25</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>23781.25</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>34682</v>
       </c>
       <c r="M84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>47206.333333333328</v>
       </c>
       <c r="N84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>64333.833333333328</v>
       </c>
       <c r="O84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>75259.25</v>
       </c>
       <c r="P84" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="69"/>
         <v>74112</v>
       </c>
-      <c r="Q84" s="2">
-        <f t="shared" si="33"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2">
+        <f t="shared" si="69"/>
         <v>106179.5</v>
       </c>
-      <c r="R84" s="2">
-        <f t="shared" ref="R84" si="35">AVERAGE(R39,R19)</f>
+      <c r="T84" s="2">
+        <f t="shared" ref="T84:U84" si="71">AVERAGE(T39,T19)</f>
         <v>161135.5</v>
       </c>
-      <c r="S84" s="2">
-        <f t="shared" si="33"/>
+      <c r="U84" s="2">
+        <f t="shared" si="71"/>
         <v>216891.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
-      <c r="A85" s="14"/>
-      <c r="B85" s="6" t="s">
+      <c r="V84" s="2" t="e">
+        <f t="shared" ref="V84:W84" si="72">AVERAGE(V39,V19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W84" s="2" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X84" s="2" t="e">
+        <f t="shared" ref="X84:Y84" si="73">AVERAGE(X39,X19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y84" s="2" t="e">
+        <f t="shared" si="73"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z84" s="2" t="e">
+        <f t="shared" ref="Z84" si="74">AVERAGE(Z39,Z19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85" s="13"/>
+      <c r="B85" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="2">
-        <f>AVERAGE(C40,C20)</f>
+        <f t="shared" ref="C85:H86" si="75">AVERAGE(C40,C20)</f>
         <v>1352.1666666666665</v>
       </c>
       <c r="D85" s="2">
-        <f>AVERAGE(D40,D20)</f>
+        <f t="shared" si="75"/>
         <v>1004.3333333333334</v>
       </c>
       <c r="E85" s="2">
-        <f>AVERAGE(E40,E20)</f>
+        <f t="shared" si="75"/>
         <v>1099.25</v>
       </c>
       <c r="F85" s="2">
-        <f>AVERAGE(F40,F20)</f>
+        <f t="shared" si="75"/>
         <v>1136.5</v>
       </c>
       <c r="G85" s="2">
-        <f>AVERAGE(G40,G20)</f>
+        <f t="shared" si="75"/>
         <v>1097.75</v>
       </c>
       <c r="H85" s="2">
-        <f>AVERAGE(H40,H20)</f>
+        <f t="shared" si="75"/>
         <v>1441.1666666666665</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" ref="I85" si="36">AVERAGE(I40,I20)</f>
+        <f t="shared" ref="I85" si="76">AVERAGE(I40,I20)</f>
         <v>3849</v>
       </c>
       <c r="J85" s="2">
-        <f>AVERAGE(J40,J20)</f>
+        <f t="shared" ref="J85:P85" si="77">AVERAGE(J40,J20)</f>
         <v>9689.5</v>
       </c>
       <c r="K85" s="2">
-        <f>AVERAGE(K40,K20)</f>
+        <f t="shared" si="77"/>
         <v>17256.083333333332</v>
       </c>
       <c r="L85" s="2">
-        <f>AVERAGE(L40,L20)</f>
+        <f t="shared" si="77"/>
         <v>26720</v>
       </c>
       <c r="M85" s="2">
-        <f>AVERAGE(M40,M20)</f>
+        <f t="shared" si="77"/>
         <v>39522.416666666672</v>
       </c>
       <c r="N85" s="2">
-        <f>AVERAGE(N40,N20)</f>
+        <f t="shared" si="77"/>
         <v>44097.083333333328</v>
       </c>
       <c r="O85" s="2">
-        <f>AVERAGE(O40,O20)</f>
+        <f t="shared" si="77"/>
         <v>54549.25</v>
       </c>
       <c r="P85" s="2">
-        <f>AVERAGE(P40,P20)</f>
+        <f t="shared" si="77"/>
         <v>53063.5</v>
       </c>
-      <c r="Q85" s="2">
-        <f>AVERAGE(Q40,Q20)</f>
-        <v>78594.5</v>
-      </c>
-      <c r="R85" s="2">
-        <f t="shared" ref="R85" si="37">AVERAGE(R40,R20)</f>
-        <v>147732</v>
-      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
       <c r="S85" s="2">
         <f>AVERAGE(S40,S20)</f>
+        <v>78594.5</v>
+      </c>
+      <c r="T85" s="2">
+        <f t="shared" ref="T85:V85" si="78">AVERAGE(T40,T20)</f>
+        <v>147732</v>
+      </c>
+      <c r="U85" s="2">
+        <f>AVERAGE(U40,U20)</f>
         <v>180419</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
-      <c r="A86" s="15"/>
-      <c r="B86" s="8" t="s">
+      <c r="V85" s="2" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W85" s="2" t="e">
+        <f>AVERAGE(W40,W20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X85" s="2" t="e">
+        <f>AVERAGE(X40,X20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y85" s="2" t="e">
+        <f>AVERAGE(Y40,Y20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z85" s="2" t="e">
+        <f>AVERAGE(Z40,Z20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86" s="14"/>
+      <c r="B86" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="2">
-        <f>AVERAGE(C41,C21)</f>
+        <f t="shared" si="75"/>
         <v>795</v>
       </c>
       <c r="D86" s="2">
-        <f>AVERAGE(D41,D21)</f>
+        <f t="shared" si="75"/>
         <v>748</v>
       </c>
       <c r="E86" s="2">
-        <f>AVERAGE(E41,E21)</f>
+        <f t="shared" si="75"/>
         <v>976</v>
       </c>
       <c r="F86" s="2">
-        <f>AVERAGE(F41,F21)</f>
+        <f t="shared" si="75"/>
         <v>1442</v>
       </c>
       <c r="G86" s="2">
-        <f>AVERAGE(G41,G21)</f>
+        <f t="shared" si="75"/>
         <v>1205</v>
       </c>
       <c r="H86" s="2">
-        <f>AVERAGE(H41,H21)</f>
+        <f t="shared" si="75"/>
         <v>1412.5</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" ref="I86:S86" si="38">AVERAGE(I41,I21)</f>
+        <f t="shared" ref="I86:T86" si="79">AVERAGE(I41,I21)</f>
         <v>3225.5</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="79"/>
         <v>10430</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="79"/>
         <v>17617.5</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="79"/>
         <v>25594</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="79"/>
         <v>35183.5</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="79"/>
         <v>40480</v>
       </c>
       <c r="O86" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="79"/>
         <v>43707</v>
       </c>
       <c r="P86" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="79"/>
         <v>52539</v>
       </c>
-      <c r="Q86" s="2">
-        <f t="shared" si="38"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2">
+        <f t="shared" si="79"/>
         <v>71957</v>
       </c>
-      <c r="R86" s="2">
-        <f t="shared" si="38"/>
+      <c r="T86" s="2">
+        <f t="shared" si="79"/>
         <v>137698</v>
       </c>
-      <c r="S86" s="2">
-        <f t="shared" si="38"/>
+      <c r="U86" s="2">
+        <f t="shared" ref="U86:V86" si="80">AVERAGE(U41,U21)</f>
         <v>236946</v>
       </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="V86" s="2" t="e">
+        <f t="shared" si="80"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W86" s="2" t="e">
+        <f t="shared" ref="W86:X86" si="81">AVERAGE(W41,W21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X86" s="2" t="e">
+        <f t="shared" si="81"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y86" s="2" t="e">
+        <f t="shared" ref="Y86:Z86" si="82">AVERAGE(Y41,Y21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z86" s="2" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="B88" s="1" t="s">
         <v>8</v>
       </c>
@@ -6625,312 +7756,415 @@
       <c r="N88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="S88" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" ht="26" customHeight="1">
-      <c r="A90" s="13" t="s">
+      <c r="T88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z88" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" ht="26" customHeight="1">
+      <c r="A90" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="10">
         <f>C83/C$1*1000</f>
         <v>260166.66666666663</v>
       </c>
-      <c r="D90" s="12">
-        <f t="shared" ref="D90:S90" si="39">D83/D$1*1000</f>
+      <c r="D90" s="10">
+        <f t="shared" ref="D90:T90" si="83">D83/D$1*1000</f>
         <v>211416.66666666669</v>
       </c>
-      <c r="E90" s="12">
-        <f t="shared" si="39"/>
+      <c r="E90" s="10">
+        <f t="shared" si="83"/>
         <v>21377.5</v>
       </c>
-      <c r="F90" s="12">
-        <f t="shared" si="39"/>
+      <c r="F90" s="10">
+        <f t="shared" si="83"/>
         <v>2343.5</v>
       </c>
-      <c r="G90" s="12">
-        <f t="shared" si="39"/>
+      <c r="G90" s="10">
+        <f t="shared" si="83"/>
         <v>267.05</v>
       </c>
-      <c r="H90" s="12">
-        <f t="shared" si="39"/>
+      <c r="H90" s="10">
+        <f t="shared" si="83"/>
         <v>28.743333333333329</v>
       </c>
-      <c r="I90" s="12">
-        <f t="shared" ref="I90" si="40">I83/I$1*1000</f>
+      <c r="I90" s="10">
+        <f t="shared" ref="I90" si="84">I83/I$1*1000</f>
         <v>17.617000000000001</v>
       </c>
-      <c r="J90" s="12">
-        <f t="shared" si="39"/>
+      <c r="J90" s="10">
+        <f t="shared" si="83"/>
         <v>18.59975</v>
       </c>
-      <c r="K90" s="12">
-        <f t="shared" si="39"/>
+      <c r="K90" s="10">
+        <f t="shared" si="83"/>
         <v>18.570083333333329</v>
       </c>
-      <c r="L90" s="12">
-        <f t="shared" si="39"/>
+      <c r="L90" s="10">
+        <f t="shared" si="83"/>
         <v>18.243333333333332</v>
       </c>
-      <c r="M90" s="12">
-        <f t="shared" si="39"/>
+      <c r="M90" s="10">
+        <f t="shared" si="83"/>
         <v>18.432375</v>
       </c>
-      <c r="N90" s="12">
-        <f t="shared" si="39"/>
+      <c r="N90" s="10">
+        <f t="shared" si="83"/>
         <v>19.744583333333331</v>
       </c>
-      <c r="O90" s="12">
-        <f t="shared" si="39"/>
+      <c r="O90" s="10">
+        <f t="shared" si="83"/>
         <v>19.459208333333333</v>
       </c>
-      <c r="P90" s="12">
-        <f t="shared" si="39"/>
+      <c r="P90" s="10">
+        <f t="shared" si="83"/>
         <v>16.013500000000001</v>
       </c>
-      <c r="Q90" s="12">
-        <f t="shared" si="39"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10">
+        <f t="shared" si="83"/>
         <v>16.4575</v>
       </c>
-      <c r="R90" s="12">
-        <f t="shared" si="39"/>
+      <c r="T90" s="10">
+        <f t="shared" si="83"/>
         <v>16.042133333333332</v>
       </c>
-      <c r="S90" s="12">
-        <f t="shared" si="39"/>
+      <c r="U90" s="10">
+        <f t="shared" ref="U90:V90" si="85">U83/U$1*1000</f>
         <v>16.645025</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
-      <c r="A91" s="14"/>
-      <c r="B91" s="6" t="s">
+      <c r="V90" s="10" t="e">
+        <f t="shared" si="85"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W90" s="10" t="e">
+        <f t="shared" ref="W90:X90" si="86">W83/W$1*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X90" s="10" t="e">
+        <f t="shared" si="86"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y90" s="10" t="e">
+        <f t="shared" ref="Y90:Z90" si="87">Y83/Y$1*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z90" s="10" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" s="13"/>
+      <c r="B91" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="12">
-        <f t="shared" ref="C91:S93" si="41">C84/C$1*1000</f>
+      <c r="C91" s="10">
+        <f t="shared" ref="C91:T93" si="88">C84/C$1*1000</f>
         <v>2157666.666666667</v>
       </c>
-      <c r="D91" s="12">
-        <f t="shared" si="41"/>
+      <c r="D91" s="10">
+        <f t="shared" si="88"/>
         <v>117066.66666666664</v>
       </c>
-      <c r="E91" s="12">
-        <f t="shared" si="41"/>
+      <c r="E91" s="10">
+        <f t="shared" si="88"/>
         <v>13017.5</v>
       </c>
-      <c r="F91" s="12">
-        <f t="shared" si="41"/>
+      <c r="F91" s="10">
+        <f t="shared" si="88"/>
         <v>1286.6666666666665</v>
       </c>
-      <c r="G91" s="12">
-        <f t="shared" si="41"/>
+      <c r="G91" s="10">
+        <f t="shared" si="88"/>
         <v>118.325</v>
       </c>
-      <c r="H91" s="12">
-        <f t="shared" si="41"/>
+      <c r="H91" s="10">
+        <f t="shared" si="88"/>
         <v>19.8</v>
       </c>
-      <c r="I91" s="12">
-        <f t="shared" ref="I91" si="42">I84/I$1*1000</f>
+      <c r="I91" s="10">
+        <f t="shared" ref="I91" si="89">I84/I$1*1000</f>
         <v>12.382000000000001</v>
       </c>
-      <c r="J91" s="12">
-        <f t="shared" si="41"/>
+      <c r="J91" s="10">
+        <f t="shared" si="88"/>
         <v>12.95125</v>
       </c>
-      <c r="K91" s="12">
-        <f t="shared" si="41"/>
+      <c r="K91" s="10">
+        <f t="shared" si="88"/>
         <v>11.890625</v>
       </c>
-      <c r="L91" s="12">
-        <f t="shared" si="41"/>
+      <c r="L91" s="10">
+        <f t="shared" si="88"/>
         <v>11.560666666666666</v>
       </c>
-      <c r="M91" s="12">
-        <f t="shared" si="41"/>
+      <c r="M91" s="10">
+        <f t="shared" si="88"/>
         <v>11.801583333333332</v>
       </c>
-      <c r="N91" s="12">
-        <f t="shared" si="41"/>
+      <c r="N91" s="10">
+        <f t="shared" si="88"/>
         <v>12.866766666666667</v>
       </c>
-      <c r="O91" s="12">
-        <f t="shared" si="41"/>
+      <c r="O91" s="10">
+        <f t="shared" si="88"/>
         <v>12.543208333333332</v>
       </c>
-      <c r="P91" s="12">
-        <f t="shared" si="41"/>
+      <c r="P91" s="10">
+        <f t="shared" si="88"/>
         <v>10.587428571428573</v>
       </c>
-      <c r="Q91" s="12">
-        <f t="shared" si="41"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10">
+        <f t="shared" si="88"/>
         <v>10.617949999999999</v>
       </c>
-      <c r="R91" s="12">
-        <f t="shared" si="41"/>
+      <c r="T91" s="10">
+        <f t="shared" si="88"/>
         <v>10.742366666666666</v>
       </c>
-      <c r="S91" s="12">
-        <f t="shared" si="41"/>
+      <c r="U91" s="10">
+        <f t="shared" ref="U91:V91" si="90">U84/U$1*1000</f>
         <v>10.844575000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="A92" s="14"/>
-      <c r="B92" s="6" t="s">
+      <c r="V91" s="10" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W91" s="10" t="e">
+        <f t="shared" ref="W91:X91" si="91">W84/W$1*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X91" s="10" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y91" s="10" t="e">
+        <f t="shared" ref="Y91:Z91" si="92">Y84/Y$1*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z91" s="10" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92" s="13"/>
+      <c r="B92" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="12">
-        <f t="shared" si="41"/>
+      <c r="C92" s="10">
+        <f t="shared" si="88"/>
         <v>1352166.6666666665</v>
       </c>
-      <c r="D92" s="12">
-        <f t="shared" si="41"/>
+      <c r="D92" s="10">
+        <f t="shared" si="88"/>
         <v>100433.33333333334</v>
       </c>
-      <c r="E92" s="12">
-        <f t="shared" si="41"/>
+      <c r="E92" s="10">
+        <f t="shared" si="88"/>
         <v>10992.5</v>
       </c>
-      <c r="F92" s="12">
-        <f t="shared" si="41"/>
+      <c r="F92" s="10">
+        <f t="shared" si="88"/>
         <v>1136.5</v>
       </c>
-      <c r="G92" s="12">
-        <f t="shared" si="41"/>
+      <c r="G92" s="10">
+        <f t="shared" si="88"/>
         <v>109.77499999999999</v>
       </c>
-      <c r="H92" s="12">
-        <f t="shared" si="41"/>
+      <c r="H92" s="10">
+        <f t="shared" si="88"/>
         <v>14.411666666666665</v>
       </c>
-      <c r="I92" s="12">
-        <f t="shared" ref="I92" si="43">I85/I$1*1000</f>
+      <c r="I92" s="10">
+        <f t="shared" ref="I92" si="93">I85/I$1*1000</f>
         <v>7.6980000000000004</v>
       </c>
-      <c r="J92" s="12">
-        <f t="shared" si="41"/>
+      <c r="J92" s="10">
+        <f t="shared" si="88"/>
         <v>9.6895000000000007</v>
       </c>
-      <c r="K92" s="12">
-        <f t="shared" si="41"/>
+      <c r="K92" s="10">
+        <f t="shared" si="88"/>
         <v>8.6280416666666664</v>
       </c>
-      <c r="L92" s="12">
-        <f t="shared" si="41"/>
+      <c r="L92" s="10">
+        <f t="shared" si="88"/>
         <v>8.9066666666666663</v>
       </c>
-      <c r="M92" s="12">
-        <f t="shared" si="41"/>
+      <c r="M92" s="10">
+        <f t="shared" si="88"/>
         <v>9.880604166666668</v>
       </c>
-      <c r="N92" s="12">
-        <f t="shared" si="41"/>
+      <c r="N92" s="10">
+        <f t="shared" si="88"/>
         <v>8.8194166666666671</v>
       </c>
-      <c r="O92" s="12">
-        <f t="shared" si="41"/>
+      <c r="O92" s="10">
+        <f t="shared" si="88"/>
         <v>9.0915416666666662</v>
       </c>
-      <c r="P92" s="12">
-        <f t="shared" si="41"/>
+      <c r="P92" s="10">
+        <f t="shared" si="88"/>
         <v>7.5805000000000007</v>
       </c>
-      <c r="Q92" s="12">
-        <f t="shared" si="41"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10">
+        <f t="shared" si="88"/>
         <v>7.8594500000000007</v>
       </c>
-      <c r="R92" s="12">
-        <f t="shared" si="41"/>
+      <c r="T92" s="10">
+        <f t="shared" si="88"/>
         <v>9.8487999999999989</v>
       </c>
-      <c r="S92" s="12">
-        <f t="shared" si="41"/>
+      <c r="U92" s="10">
+        <f t="shared" ref="U92:V92" si="94">U85/U$1*1000</f>
         <v>9.0209499999999991</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
-      <c r="A93" s="15"/>
-      <c r="B93" s="8" t="s">
+      <c r="V92" s="10" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W92" s="10" t="e">
+        <f t="shared" ref="W92:X92" si="95">W85/W$1*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X92" s="10" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y92" s="10" t="e">
+        <f t="shared" ref="Y92:Z92" si="96">Y85/Y$1*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z92" s="10" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" s="14"/>
+      <c r="B93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="12">
-        <f t="shared" si="41"/>
+      <c r="C93" s="10">
+        <f t="shared" si="88"/>
         <v>795000</v>
       </c>
-      <c r="D93" s="12">
-        <f t="shared" si="41"/>
+      <c r="D93" s="10">
+        <f t="shared" si="88"/>
         <v>74800</v>
       </c>
-      <c r="E93" s="12">
-        <f t="shared" si="41"/>
+      <c r="E93" s="10">
+        <f t="shared" si="88"/>
         <v>9760</v>
       </c>
-      <c r="F93" s="12">
-        <f t="shared" si="41"/>
+      <c r="F93" s="10">
+        <f t="shared" si="88"/>
         <v>1442</v>
       </c>
-      <c r="G93" s="12">
-        <f t="shared" si="41"/>
+      <c r="G93" s="10">
+        <f t="shared" si="88"/>
         <v>120.5</v>
       </c>
-      <c r="H93" s="12">
-        <f t="shared" si="41"/>
+      <c r="H93" s="10">
+        <f t="shared" si="88"/>
         <v>14.125</v>
       </c>
-      <c r="I93" s="12">
-        <f t="shared" ref="I93" si="44">I86/I$1*1000</f>
+      <c r="I93" s="10">
+        <f t="shared" ref="I93" si="97">I86/I$1*1000</f>
         <v>6.4510000000000005</v>
       </c>
-      <c r="J93" s="12">
-        <f t="shared" si="41"/>
+      <c r="J93" s="10">
+        <f t="shared" si="88"/>
         <v>10.43</v>
       </c>
-      <c r="K93" s="12">
-        <f t="shared" si="41"/>
+      <c r="K93" s="10">
+        <f t="shared" si="88"/>
         <v>8.8087499999999999</v>
       </c>
-      <c r="L93" s="12">
-        <f t="shared" si="41"/>
+      <c r="L93" s="10">
+        <f t="shared" si="88"/>
         <v>8.5313333333333343</v>
       </c>
-      <c r="M93" s="12">
-        <f t="shared" si="41"/>
+      <c r="M93" s="10">
+        <f t="shared" si="88"/>
         <v>8.7958750000000006</v>
       </c>
-      <c r="N93" s="12">
-        <f t="shared" si="41"/>
+      <c r="N93" s="10">
+        <f t="shared" si="88"/>
         <v>8.0960000000000001</v>
       </c>
-      <c r="O93" s="12">
-        <f t="shared" si="41"/>
+      <c r="O93" s="10">
+        <f t="shared" si="88"/>
         <v>7.2845000000000004</v>
       </c>
-      <c r="P93" s="12">
-        <f t="shared" si="41"/>
+      <c r="P93" s="10">
+        <f t="shared" si="88"/>
         <v>7.5055714285714279</v>
       </c>
-      <c r="Q93" s="12">
-        <f t="shared" si="41"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10">
+        <f t="shared" si="88"/>
         <v>7.1957000000000004</v>
       </c>
-      <c r="R93" s="12">
-        <f t="shared" si="41"/>
+      <c r="T93" s="10">
+        <f t="shared" si="88"/>
         <v>9.1798666666666655</v>
       </c>
-      <c r="S93" s="12">
-        <f t="shared" si="41"/>
+      <c r="U93" s="10">
+        <f t="shared" ref="U93:V93" si="98">U86/U$1*1000</f>
         <v>11.847300000000001</v>
+      </c>
+      <c r="V93" s="10" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W93" s="10" t="e">
+        <f t="shared" ref="W93:X93" si="99">W86/W$1*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X93" s="10" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y93" s="10" t="e">
+        <f t="shared" ref="Y93:Z93" si="100">Y86/Y$1*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z93" s="10" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
